--- a/onprc_ehr/resources/web/onprc_ehr/templates/BioFireTemplater_BC Panel.xlsx
+++ b/onprc_ehr/resources/web/onprc_ehr/templates/BioFireTemplater_BC Panel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\XML_Project\Heidi_Palmer\Final_BioFireTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6197E449-1456-41D8-9633-F354BD62F26E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FD25F3-6E1C-495B-A14D-AB884D818EFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{3C994614-C82B-4F4F-8C34-DAAF4D70F013}"/>
   </bookViews>
   <sheets>
-    <sheet name="Original" sheetId="2" r:id="rId1"/>
+    <sheet name="for BC" sheetId="2" r:id="rId1"/>
+    <sheet name="cheat sheet" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+  <si>
+    <t>Not Detected</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +68,12 @@
   </si>
   <si>
     <t>Misc Tests</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Detected</t>
   </si>
   <si>
     <t>Biofire BC PCR Panel</t>
@@ -450,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -482,6 +492,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -821,7 +832,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B54"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,388 +846,388 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="13"/>
+      <c r="A1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="14"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B5" s="19">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17">
+        <v>2135</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="18">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="16">
-        <v>2135</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
     </row>
     <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -1229,7 +1240,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F09135B2-0A48-4164-9EA9-21F26A779870}">
           <x14:formula1>
-            <xm:f>#REF!</xm:f>
+            <xm:f>'cheat sheet'!$A$1:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>B12:C54</xm:sqref>
         </x14:dataValidation>
@@ -1237,4 +1248,37 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890D7E3B-CF8B-46E3-BE5C-A54EC36756A8}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/onprc_ehr/resources/web/onprc_ehr/templates/BioFireTemplater_BC Panel.xlsx
+++ b/onprc_ehr/resources/web/onprc_ehr/templates/BioFireTemplater_BC Panel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\XML_Project\Heidi_Palmer\Final_BioFireTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Test_22.7\server\modules\onprcEHRModules\onprc_ehr\resources\web\onprc_ehr\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FD25F3-6E1C-495B-A14D-AB884D818EFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5719F494-A422-4B6F-8B44-536496940954}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{3C994614-C82B-4F4F-8C34-DAAF4D70F013}"/>
   </bookViews>
@@ -385,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -393,126 +393,47 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -832,405 +753,405 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="49" style="7" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="6"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="11">
         <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="13">
         <v>2135</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
     </row>
     <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1264,17 +1185,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
